--- a/config.xlsx
+++ b/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\keiba\tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4B5204-6B6D-4A2D-A5A3-B45E24FC6555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEC24DC-9C68-4124-A3F3-DCD2686A7FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="6" activeTab="12" xr2:uid="{8E3AE7DD-1BE0-40EB-8B29-F0309DD48A89}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="4" activeTab="10" xr2:uid="{8E3AE7DD-1BE0-40EB-8B29-F0309DD48A89}"/>
   </bookViews>
   <sheets>
     <sheet name="racecourse" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="netkeiba" sheetId="3" r:id="rId3"/>
     <sheet name="features" sheetId="12" r:id="rId4"/>
     <sheet name="target_courses" sheetId="6" r:id="rId5"/>
-    <sheet name="min_records" sheetId="11" r:id="rId6"/>
-    <sheet name="simulation_rand_std" sheetId="7" r:id="rId7"/>
+    <sheet name="data_model" sheetId="15" r:id="rId6"/>
+    <sheet name="model" sheetId="16" r:id="rId7"/>
     <sheet name="num_sumulation" sheetId="10" r:id="rId8"/>
     <sheet name="ev_th" sheetId="9" r:id="rId9"/>
     <sheet name="scrape" sheetId="5" r:id="rId10"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="238">
   <si>
     <t>水沢</t>
     <rPh sb="0" eb="2">
@@ -658,90 +658,247 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>min_jockey_records</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>th_num8_pop1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>th_num8_pop2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>th_num8_pop3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>th_num8_pop4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>th_num8_pop5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>th_num8_pop6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>th_num8_pop7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>th_num8_pop8</t>
+  </si>
+  <si>
+    <t>th_num9_pop1</t>
+  </si>
+  <si>
+    <t>th_num9_pop2</t>
+  </si>
+  <si>
+    <t>th_num9_pop3</t>
+  </si>
+  <si>
+    <t>th_num9_pop4</t>
+  </si>
+  <si>
+    <t>th_num9_pop5</t>
+  </si>
+  <si>
+    <t>th_num9_pop6</t>
+  </si>
+  <si>
+    <t>th_num9_pop7</t>
+  </si>
+  <si>
+    <t>th_num9_pop8</t>
+  </si>
+  <si>
+    <t>th_num9_pop9</t>
+  </si>
+  <si>
+    <t>from</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app_password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nkrd rzhz bske ktyj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.spat4.jp/keiba/pc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加入者番号</t>
+    <rPh sb="0" eb="3">
+      <t>カニュウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用者ID</t>
+  </si>
+  <si>
+    <t>暗証番号</t>
+  </si>
+  <si>
+    <t>MODE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PRE_MINUTES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www1.spat4.jp/keiba/pc?HANDLERR=P120S&amp;RACER=1</t>
+  </si>
+  <si>
+    <t>URL_オッズ投票</t>
+    <rPh sb="7" eb="9">
+      <t>トウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>th_num10_pop1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>th_num10_pop2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>th_num10_pop3</t>
+  </si>
+  <si>
+    <t>th_num10_pop4</t>
+  </si>
+  <si>
+    <t>th_num10_pop5</t>
+  </si>
+  <si>
+    <t>th_num10_pop6</t>
+  </si>
+  <si>
+    <t>th_num10_pop7</t>
+  </si>
+  <si>
+    <t>th_num10_pop8</t>
+  </si>
+  <si>
+    <t>th_num10_pop9</t>
+  </si>
+  <si>
+    <t>th_num10_pop10</t>
+  </si>
+  <si>
+    <t>th_num11_pop1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>th_num11_pop2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>th_num11_pop3</t>
+  </si>
+  <si>
+    <t>th_num11_pop4</t>
+  </si>
+  <si>
+    <t>th_num11_pop5</t>
+  </si>
+  <si>
+    <t>th_num11_pop6</t>
+  </si>
+  <si>
+    <t>th_num11_pop7</t>
+  </si>
+  <si>
+    <t>th_num11_pop8</t>
+  </si>
+  <si>
+    <t>th_num11_pop9</t>
+  </si>
+  <si>
+    <t>th_num11_pop10</t>
+  </si>
+  <si>
+    <t>th_num11_pop11</t>
+  </si>
+  <si>
+    <t>th_num12_pop1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>th_num12_pop2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>th_num12_pop3</t>
+  </si>
+  <si>
+    <t>th_num12_pop4</t>
+  </si>
+  <si>
+    <t>th_num12_pop5</t>
+  </si>
+  <si>
+    <t>th_num12_pop6</t>
+  </si>
+  <si>
+    <t>th_num12_pop7</t>
+  </si>
+  <si>
+    <t>th_num12_pop8</t>
+  </si>
+  <si>
+    <t>th_num12_pop9</t>
+  </si>
+  <si>
+    <t>th_num12_pop10</t>
+  </si>
+  <si>
+    <t>th_num12_pop11</t>
+  </si>
+  <si>
+    <t>th_num12_pop12</t>
+  </si>
+  <si>
+    <t>テスト用</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test / prod</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>key_model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>shutuba</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>min_jockey_records</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pre_minutes</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>th_num8_pop1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>th_num8_pop2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>th_num8_pop3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>th_num8_pop4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>th_num8_pop5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>th_num8_pop6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>th_num8_pop7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>th_num8_pop8</t>
-  </si>
-  <si>
-    <t>th_num9_pop1</t>
-  </si>
-  <si>
-    <t>th_num9_pop2</t>
-  </si>
-  <si>
-    <t>th_num9_pop3</t>
-  </si>
-  <si>
-    <t>th_num9_pop4</t>
-  </si>
-  <si>
-    <t>th_num9_pop5</t>
-  </si>
-  <si>
-    <t>th_num9_pop6</t>
-  </si>
-  <si>
-    <t>th_num9_pop7</t>
-  </si>
-  <si>
-    <t>th_num9_pop8</t>
-  </si>
-  <si>
-    <t>th_num9_pop9</t>
-  </si>
-  <si>
-    <t>from</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>to</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>app_password</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nkrd rzhz bske ktyj</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -820,7 +977,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,6 +989,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1361,13 +1524,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9F8379-8B9D-4F6C-9766-010CC50ABE47}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="58.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
@@ -1382,30 +1548,89 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="1">
+        <v>196</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="4">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="4">
+        <v>12118802</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="4">
+        <v>19930403</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1979</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{0BC4968A-461E-4E06-9577-455FBB97AEE4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F2511C-0889-45BB-A7CC-B02C08A4BF4D}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
@@ -1421,7 +1646,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1430,7 +1655,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1439,7 +1664,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1448,7 +1673,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1457,7 +1682,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -1466,7 +1691,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1475,7 +1700,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1484,7 +1709,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -1493,7 +1718,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -1502,7 +1727,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -1511,7 +1736,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -1520,7 +1745,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -1529,7 +1754,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -1538,7 +1763,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -1547,7 +1772,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -1556,7 +1781,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -1565,12 +1790,375 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>233</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1582,7 +2170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7998D381-A20F-4C12-9CA2-67145FE8AD7C}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1601,7 +2189,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>20</v>
@@ -1610,7 +2198,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>20</v>
@@ -1619,10 +2207,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -1704,13 +2292,13 @@
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="45.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="166.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.69921875" customWidth="1"/>
     <col min="3" max="3" width="19.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1766,7 +2354,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>128</v>
@@ -2359,6 +2947,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{8961A541-574F-49B4-8ECC-D27E0A6B3303}">
+      <formula1>"shutuba,result"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{29AAE700-5FE9-4DF1-ADD4-5AC03F42F530}"/>
   </hyperlinks>
@@ -2370,25 +2963,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9687D5B1-5219-4041-B00D-CBBEBE04B0E2}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="1">
         <v>100</v>
       </c>
     </row>
@@ -2402,7 +2993,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186A2727-FCA8-4C59-937F-D7A8BCFFAD51}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -2735,16 +3328,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AA17F2-84F1-4F27-B444-CB3F05D6BE15}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DA897A-3370-41C6-B187-BA6966BA7F5E}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>147</v>
       </c>
@@ -2752,26 +3345,71 @@
         <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2780,46 +3418,33 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EA738A-110D-4A97-8867-02CE268898F1}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6FCFEF-8940-4B53-B295-1C01DE8994F7}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
-        <v>8</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="B2" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>20260119</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2832,7 +3457,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2859,10 +3484,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0E16B7-2BD1-4E23-AA5F-76126063E854}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2889,9 +3514,11 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
         <v>1.5</v>
       </c>
-      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
@@ -2901,9 +3528,11 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
@@ -2913,9 +3542,11 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
@@ -2925,9 +3556,11 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
@@ -2937,9 +3570,11 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
@@ -2949,9 +3584,11 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
@@ -2961,9 +3598,11 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
@@ -2973,9 +3612,11 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
@@ -2985,9 +3626,11 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
         <v>1.5</v>
       </c>
-      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
@@ -2997,9 +3640,11 @@
         <v>2</v>
       </c>
       <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
@@ -3009,9 +3654,11 @@
         <v>3</v>
       </c>
       <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
@@ -3021,9 +3668,11 @@
         <v>4</v>
       </c>
       <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
@@ -3033,9 +3682,11 @@
         <v>5</v>
       </c>
       <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
@@ -3045,9 +3696,11 @@
         <v>6</v>
       </c>
       <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
         <v>3</v>
       </c>
-      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
@@ -3057,9 +3710,11 @@
         <v>7</v>
       </c>
       <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
@@ -3069,9 +3724,11 @@
         <v>8</v>
       </c>
       <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
         <v>3</v>
       </c>
-      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
@@ -3081,9 +3738,473 @@
         <v>9</v>
       </c>
       <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
         <v>3</v>
       </c>
-      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>11</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>11</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>11</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>11</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>11</v>
+      </c>
+      <c r="B33" s="1">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>11</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>11</v>
+      </c>
+      <c r="B37" s="1">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>11</v>
+      </c>
+      <c r="B38" s="1">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>11</v>
+      </c>
+      <c r="B39" s="1">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
+        <v>12</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>12</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>12</v>
+      </c>
+      <c r="B45" s="1">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>12</v>
+      </c>
+      <c r="B46" s="1">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1">
+        <v>8</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1">
+        <v>9</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>12</v>
+      </c>
+      <c r="B49" s="1">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>12</v>
+      </c>
+      <c r="B50" s="1">
+        <v>11</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>12</v>
+      </c>
+      <c r="B51" s="1">
+        <v>12</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>233</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\keiba\tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEC24DC-9C68-4124-A3F3-DCD2686A7FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E228FA-3669-4F1C-9694-3CC4C0DEAA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="4" activeTab="10" xr2:uid="{8E3AE7DD-1BE0-40EB-8B29-F0309DD48A89}"/>
+    <workbookView xWindow="-29568" yWindow="1152" windowWidth="23040" windowHeight="12120" firstSheet="4" activeTab="10" xr2:uid="{8E3AE7DD-1BE0-40EB-8B29-F0309DD48A89}"/>
   </bookViews>
   <sheets>
     <sheet name="racecourse" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="205">
   <si>
     <t>水沢</t>
     <rPh sb="0" eb="2">
@@ -764,137 +764,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://www1.spat4.jp/keiba/pc?HANDLERR=P120S&amp;RACER=1</t>
-  </si>
-  <si>
-    <t>URL_オッズ投票</t>
-    <rPh sb="7" eb="9">
-      <t>トウヒョウ</t>
+    <t>test / prod</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>key_model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>keiba-03041993</t>
+  </si>
+  <si>
+    <t>MAX_RETRY_NUM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レースデータ取得失敗時のリトライ回数</t>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>th_num10_pop1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>th_num10_pop2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>th_num10_pop3</t>
-  </si>
-  <si>
-    <t>th_num10_pop4</t>
-  </si>
-  <si>
-    <t>th_num10_pop5</t>
-  </si>
-  <si>
-    <t>th_num10_pop6</t>
-  </si>
-  <si>
-    <t>th_num10_pop7</t>
-  </si>
-  <si>
-    <t>th_num10_pop8</t>
-  </si>
-  <si>
-    <t>th_num10_pop9</t>
-  </si>
-  <si>
-    <t>th_num10_pop10</t>
-  </si>
-  <si>
-    <t>th_num11_pop1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>th_num11_pop2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>th_num11_pop3</t>
-  </si>
-  <si>
-    <t>th_num11_pop4</t>
-  </si>
-  <si>
-    <t>th_num11_pop5</t>
-  </si>
-  <si>
-    <t>th_num11_pop6</t>
-  </si>
-  <si>
-    <t>th_num11_pop7</t>
-  </si>
-  <si>
-    <t>th_num11_pop8</t>
-  </si>
-  <si>
-    <t>th_num11_pop9</t>
-  </si>
-  <si>
-    <t>th_num11_pop10</t>
-  </si>
-  <si>
-    <t>th_num11_pop11</t>
-  </si>
-  <si>
-    <t>th_num12_pop1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>th_num12_pop2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>th_num12_pop3</t>
-  </si>
-  <si>
-    <t>th_num12_pop4</t>
-  </si>
-  <si>
-    <t>th_num12_pop5</t>
-  </si>
-  <si>
-    <t>th_num12_pop6</t>
-  </si>
-  <si>
-    <t>th_num12_pop7</t>
-  </si>
-  <si>
-    <t>th_num12_pop8</t>
-  </si>
-  <si>
-    <t>th_num12_pop9</t>
-  </si>
-  <si>
-    <t>th_num12_pop10</t>
-  </si>
-  <si>
-    <t>th_num12_pop11</t>
-  </si>
-  <si>
-    <t>th_num12_pop12</t>
-  </si>
-  <si>
-    <t>テスト用</t>
-    <rPh sb="3" eb="4">
-      <t>ヨウ</t>
+    <rPh sb="8" eb="11">
+      <t>シッパイジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test / prod</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>key_model</t>
+    <rPh sb="16" eb="18">
+      <t>カイスウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1524,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9F8379-8B9D-4F6C-9766-010CC50ABE47}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1551,10 +1449,10 @@
         <v>196</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -1562,7 +1460,7 @@
         <v>197</v>
       </c>
       <c r="B3" s="4">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
@@ -1590,8 +1488,8 @@
       <c r="A6" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="4">
-        <v>19930403</v>
+      <c r="B6" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -1603,15 +1501,6 @@
         <v>1979</v>
       </c>
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1624,7 +1513,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F2511C-0889-45BB-A7CC-B02C08A4BF4D}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1796,369 +1685,6 @@
         <v>1</v>
       </c>
       <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B41" s="1">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B44" s="1">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B45" s="1">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B46" s="1">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B47" s="1">
-        <v>1</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B48" s="1">
-        <v>1</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B49" s="1">
-        <v>1</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B50" s="1">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B51" s="1">
-        <v>1</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>233</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2289,17 +1815,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3F76E0-CF57-4A1E-ABBB-EBC22598F8F8}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="45.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.69921875" customWidth="1"/>
-    <col min="3" max="3" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
@@ -2354,7 +1880,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>128</v>
@@ -2362,588 +1888,599 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>202</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C55" s="1"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C62" s="1"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C68" s="1"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C69" s="1"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="1"/>
+      <c r="C72" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2956,6 +2493,7 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{29AAE700-5FE9-4DF1-ADD4-5AC03F42F530}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3329,11 +2867,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DA897A-3370-41C6-B187-BA6966BA7F5E}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -3374,42 +2910,6 @@
         <v>0.09</v>
       </c>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="D6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3440,7 +2940,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="B2" s="1">
         <v>20260119</v>
@@ -3484,11 +2984,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0E16B7-2BD1-4E23-AA5F-76126063E854}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -3514,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D2" s="1">
         <v>1.5</v>
@@ -3528,7 +3026,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -3542,7 +3040,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -3556,7 +3054,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -3570,7 +3068,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -3584,7 +3082,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -3598,7 +3096,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -3612,7 +3110,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -3626,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D10" s="1">
         <v>1.5</v>
@@ -3640,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -3654,7 +3152,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -3668,7 +3166,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -3682,7 +3180,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -3696,7 +3194,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
@@ -3710,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
@@ -3724,7 +3222,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
@@ -3738,472 +3236,10 @@
         <v>9</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
-        <v>10</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="1">
-        <v>10</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="1">
-        <v>10</v>
-      </c>
-      <c r="B21" s="1">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="1">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="1">
-        <v>10</v>
-      </c>
-      <c r="B23" s="1">
-        <v>5</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="1">
-        <v>10</v>
-      </c>
-      <c r="B24" s="1">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="1">
-        <v>10</v>
-      </c>
-      <c r="B25" s="1">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="1">
-        <v>10</v>
-      </c>
-      <c r="B26" s="1">
-        <v>8</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="1">
-        <v>10</v>
-      </c>
-      <c r="B27" s="1">
-        <v>9</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="1">
-        <v>10</v>
-      </c>
-      <c r="B28" s="1">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="1">
-        <v>11</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="1">
-        <v>11</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="1">
-        <v>11</v>
-      </c>
-      <c r="B31" s="1">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="1">
-        <v>11</v>
-      </c>
-      <c r="B32" s="1">
-        <v>4</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="1">
-        <v>11</v>
-      </c>
-      <c r="B33" s="1">
-        <v>5</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="1">
-        <v>11</v>
-      </c>
-      <c r="B34" s="1">
-        <v>6</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" s="1">
-        <v>11</v>
-      </c>
-      <c r="B35" s="1">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" s="1">
-        <v>11</v>
-      </c>
-      <c r="B36" s="1">
-        <v>8</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" s="1">
-        <v>11</v>
-      </c>
-      <c r="B37" s="1">
-        <v>9</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38" s="1">
-        <v>11</v>
-      </c>
-      <c r="B38" s="1">
-        <v>10</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39" s="1">
-        <v>11</v>
-      </c>
-      <c r="B39" s="1">
-        <v>11</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A40" s="1">
-        <v>12</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" s="1">
-        <v>12</v>
-      </c>
-      <c r="B41" s="1">
-        <v>2</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42" s="1">
-        <v>12</v>
-      </c>
-      <c r="B42" s="1">
-        <v>3</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" s="1">
-        <v>12</v>
-      </c>
-      <c r="B43" s="1">
-        <v>4</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44" s="1">
-        <v>12</v>
-      </c>
-      <c r="B44" s="1">
-        <v>5</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" s="1">
-        <v>12</v>
-      </c>
-      <c r="B45" s="1">
-        <v>6</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" s="1">
-        <v>12</v>
-      </c>
-      <c r="B46" s="1">
-        <v>7</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47" s="1">
-        <v>12</v>
-      </c>
-      <c r="B47" s="1">
-        <v>8</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48" s="1">
-        <v>12</v>
-      </c>
-      <c r="B48" s="1">
-        <v>9</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49" s="1">
-        <v>12</v>
-      </c>
-      <c r="B49" s="1">
-        <v>10</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" s="1">
-        <v>12</v>
-      </c>
-      <c r="B50" s="1">
-        <v>11</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" s="1">
-        <v>12</v>
-      </c>
-      <c r="B51" s="1">
-        <v>12</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
   </sheetData>
